--- a/2. 연구사업(2023년)/6. 분석결과/data_analysis/sankey_원소/sankey_data.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_analysis/sankey_원소/sankey_data.xlsx
@@ -1,18 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\6. 분석결과\data_analysis\sankey_원소\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="시트2" sheetId="2" r:id="rId5"/>
+    <sheet name="시트1" sheetId="1" r:id="rId1"/>
+    <sheet name="시트2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">시트1!$K$1:$K$13</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -53,95 +64,287 @@
     <t>Calcium Carbonate</t>
   </si>
   <si>
+    <t>Potassium carbonate</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Dipotassium Phosphate</t>
+  </si>
+  <si>
+    <t>Potassium bicarbonate</t>
+  </si>
+  <si>
+    <t>Potassium hydroxide</t>
+  </si>
+  <si>
+    <t>Trisodium Phosphate</t>
+  </si>
+  <si>
+    <t>Magnesium hydroxide</t>
+  </si>
+  <si>
+    <t>Magnesium sulfate</t>
+  </si>
+  <si>
+    <t>Magnesium chloride</t>
+  </si>
+  <si>
+    <t>Sea Salt</t>
+  </si>
+  <si>
+    <t>Sodium acetate</t>
+  </si>
+  <si>
+    <t>Sodium Alginate</t>
+  </si>
+  <si>
+    <t>Sodium bicarbonate</t>
+  </si>
+  <si>
+    <t>sodium chloride</t>
+  </si>
+  <si>
+    <t>Purified water</t>
+  </si>
+  <si>
+    <t>Groundwater</t>
+  </si>
+  <si>
+    <t>Drinking water</t>
+  </si>
+  <si>
+    <t>Rock water</t>
+  </si>
+  <si>
+    <t>Ocean deep water</t>
+  </si>
+  <si>
+    <t>Mineral mixtures</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H-</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oxide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Calcium Lactate</t>
-  </si>
-  <si>
-    <t>Potassium carbonate</t>
-  </si>
-  <si>
-    <t>Potassium Chloride</t>
-  </si>
-  <si>
-    <t>Dipotassium Phosphate</t>
-  </si>
-  <si>
-    <t>Potassium bicarbonate</t>
-  </si>
-  <si>
-    <t>Potassium hydroxide</t>
-  </si>
-  <si>
-    <t>Trisodium Phosphate</t>
-  </si>
-  <si>
-    <t>Magnesium hydroxide</t>
-  </si>
-  <si>
-    <t>Magnesium sulfate</t>
-  </si>
-  <si>
-    <t>Magnesium chloride</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3H6O3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cl-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPO4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCO3-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OH-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Magnesium Gluconate</t>
-  </si>
-  <si>
-    <t>Sea Salt</t>
-  </si>
-  <si>
-    <t>Sodium acetate</t>
-  </si>
-  <si>
-    <t>Sodium Alginate</t>
-  </si>
-  <si>
-    <t>Sodium bicarbonate</t>
-  </si>
-  <si>
-    <t>sodium chloride</t>
-  </si>
-  <si>
-    <t>Purified water</t>
-  </si>
-  <si>
-    <t>Groundwater</t>
-  </si>
-  <si>
-    <t>Drinking water</t>
-  </si>
-  <si>
-    <t>Rock water</t>
-  </si>
-  <si>
-    <t>Ocean deep water</t>
-  </si>
-  <si>
-    <t>Mineral mixtures</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>volume</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6H12O7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2H3O2-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6H8O6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ineral</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mineral</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ource</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>olume</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Na</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purified</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ground</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ocean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -150,40 +353,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -373,542 +581,1190 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.63"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>26</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>38</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>39</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>13</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>43</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>37</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>45</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>37</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>38</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>42</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24">
         <v>22</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="D24">
+        <v>46</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25">
         <v>23</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26">
         <v>24</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="D26">
+        <v>47</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27">
         <v>25</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="D27">
+        <v>48</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28">
         <v>26</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="D28">
+        <v>44</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29">
         <v>27</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="D29">
+        <v>42</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30">
         <v>28</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="F30" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31">
         <v>29</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="F31" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32">
         <v>30</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="F32" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33">
         <v>31</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="F33" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34">
         <v>32</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="F34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36">
+      <c r="B35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="F35" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37">
+      <c r="B36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36">
+        <v>34</v>
+      </c>
+      <c r="F36" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37">
+        <v>35</v>
+      </c>
+      <c r="F37" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1">
-        <v>174.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C26" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B28" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>